--- a/docs/guilcera ids.xlsx
+++ b/docs/guilcera ids.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="176">
   <si>
     <t>level</t>
   </si>
@@ -522,16 +522,28 @@
     <t>Peonsville</t>
   </si>
   <si>
-    <t>Dodoma</t>
-  </si>
-  <si>
     <t>Xanadu</t>
   </si>
   <si>
-    <t>Caralin</t>
-  </si>
-  <si>
     <t>Turim</t>
+  </si>
+  <si>
+    <t>misc storage</t>
+  </si>
+  <si>
+    <t>creaturescripts/scripts/firstitems.lua</t>
+  </si>
+  <si>
+    <t>promotion</t>
+  </si>
+  <si>
+    <t>premium account</t>
+  </si>
+  <si>
+    <t>remove blesses</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +blessID blesses</t>
   </si>
 </sst>
 </file>
@@ -896,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:M141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E138" sqref="E138"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3623,7 +3635,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>168</v>
@@ -3631,26 +3643,55 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
-      <c r="A135">
-        <v>7</v>
-      </c>
-      <c r="C135" t="s">
+    <row r="136" spans="1:3">
+      <c r="A136" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
-      <c r="A136">
-        <v>8</v>
-      </c>
-      <c r="C136" t="s">
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>7001</v>
+      </c>
+      <c r="B137" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>15000</v>
+      </c>
+      <c r="B138" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>25000</v>
+      </c>
+      <c r="B139" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>500000</v>
+      </c>
+      <c r="B140" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>1000000</v>
+      </c>
+      <c r="B141" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
